--- a/xxx/data.xlsx
+++ b/xxx/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanaphajaney/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanaphajaney/Documents/lab234-lab11-frontend/xxx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
